--- a/finetuning/it_datasets/it_dataset/it_zouila_dataset.xlsx
+++ b/finetuning/it_datasets/it_dataset/it_zouila_dataset.xlsx
@@ -646,7 +646,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>If you're in zouila and looking for a great hostel, ZOUILA is a must-visit spot. Located in FXPP+QGC ZOUILA, MC 96, Mahdia, this top-rated destination offers a range of amenities for hostel lovers. With a rating of 4.7, it's a place you won't want to miss. To get there, use these GPS coordinates: 35.50056, 11.06056. For more details, visit their website at https://www.google.com/maps/place/ZOUILA/data=!4m7!3m6!1s0x130221a57d5cd959:0x26bca42add631517!8m2!3d35.4869363!4d10.986259!16s%2Fg%2F11pfnc3jgq!19sChIJWdlcfaUhAhMRFxVj3SqkvCY?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>ZOUILA is a 4.7-rated hostel located in zouila, MC 96, Mahdia. It offers a comfortable and affordable stay for travelers. The hostel is well-equipped with modern amenities and provides a range of services to ensure a pleasant experience for its guests. Conveniently located in the heart of zouila, ZOUILA offers easy access to local attractions and transportation hubs. Whether you're a solo traveler, a couple, or a group of friends, ZOUILA is the perfect place to stay for an enjoyable and memorable vacation.</t>
         </is>
       </c>
     </row>
